--- a/received_db.xlsx
+++ b/received_db.xlsx
@@ -603,27 +603,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ingredients</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>steps</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pasta, Sauce, Water, Salt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boil water
 Put Pasta in water
@@ -633,22 +646,22 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pasta, Sauce, Water, Salt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pasta</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>Cake</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Flour, Eggs, Milk, Frosting</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">Combine Flour, Eggs, and Milk in Mixer
 Bake Cake in oven
@@ -656,22 +669,22 @@
 </t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Flour, Eggs, Milk, Frosting</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cake</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Eggs, Salt, Pepper, Cheese</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisk Eggs
 Heat up pan
@@ -680,19 +693,6 @@
 </t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Eggs, Salt, Pepper, Cheese</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eggs</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/received_db.xlsx
+++ b/received_db.xlsx
@@ -603,40 +603,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ingredients</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>12</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pasta, Sauce, Water, Salt</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Pasta, Sauce, Water, Salt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boil water
 Put Pasta in water
@@ -646,22 +641,22 @@
 </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cake</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>13</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Flour, Eggs, Milk, Frosting</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Flour, Eggs, Milk, Frosting</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">Combine Flour, Eggs, and Milk in Mixer
 Bake Cake in oven
@@ -669,22 +664,22 @@
 </t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cake</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eggs</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>14</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eggs, Salt, Pepper, Cheese</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Eggs, Salt, Pepper, Cheese</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisk Eggs
 Heat up pan
@@ -693,6 +688,11 @@
 </t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/received_db.xlsx
+++ b/received_db.xlsx
@@ -437,14 +437,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>density</t>
@@ -452,130 +452,130 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ice Cream</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>9</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ice Cream</t>
-        </is>
       </c>
       <c r="C2" t="n">
         <v>0.554</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Yogurt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>10</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yogurt</t>
-        </is>
       </c>
       <c r="C3" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>11</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bread</t>
-        </is>
       </c>
       <c r="C4" t="n">
         <v>0.29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Oats</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Oats</t>
-        </is>
       </c>
       <c r="C5" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>13</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
       </c>
       <c r="C6" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Boiled Potatoes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>14</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Boiled Potatoes</t>
-        </is>
       </c>
       <c r="C7" t="n">
         <v>0.59</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Red Chili</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>15</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red Chili</t>
-        </is>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>16</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Milk</t>
-        </is>
       </c>
       <c r="C9" t="n">
         <v>1.035</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Flour</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>17</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Flour</t>
-        </is>
       </c>
       <c r="C10" t="n">
         <v>0.805</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tomatoes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>21</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tomatoes</t>
-        </is>
       </c>
       <c r="C11" t="n">
         <v>3.5</v>
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,94 +603,51 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ingredients</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>12</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>White Cake</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pasta, Sauce, Water, Salt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boil water
-Put Pasta in water
-Wait for pasta to cook
-Add Sauce and salt
-Enjoy
+          <t xml:space="preserve">Measure 1 cup of sugar into a mixing bowl.
+Measure 1 cup of butter into the same mixing bowl.
+Mix the sugar and butter together until combined.
+Add eggs to the same bowl and mix until combined.
+Measure 2 teaspoons of vanilla extract into the same mixing bowl.
+Mix the vanilla extract until combined. 
+Measure 1.5 cups of all purpose flour into a new mixing bowl.
+Measure 1.75 teaspoons of baking powder into bowl with the flour.
+Bake.
 </t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pasta</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Flour, Eggs, Milk, Frosting</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combine Flour, Eggs, and Milk in Mixer
-Bake Cake in oven
-Add Frosting
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cake</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eggs, Salt, Pepper, Cheese</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Whisk Eggs
-Heat up pan
-Put eggs in pan and season with salt and pepper
-Add cheese and melt
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eggs</t>
+          <t>1 cup white sugar, 0.5 cups unsalted butter, 2 teaspoons vanilla extract, 1.5 cups all purpose flour, 1.75 teaspoons baking powder, 0.5 cups milk</t>
         </is>
       </c>
     </row>

--- a/received_db.xlsx
+++ b/received_db.xlsx
@@ -437,148 +437,148 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>density</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Ice Cream</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.554</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Yogurt</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.06</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Bread</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.29</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Oats</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.41</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Rice</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.72</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Boiled Potatoes</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.59</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Red Chili</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Milk</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.035</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Flour</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.805</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Tomatoes</t>
         </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,32 +603,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ingredients</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
-        <is>
-          <t>White Cake</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Measure 1 cup of sugar into a mixing bowl.
 Measure 1 cup of butter into the same mixing bowl.
@@ -642,12 +642,22 @@
 </t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 cup white sugar, 0.5 cups unsalted butter, 2 teaspoons vanilla extract, 1.5 cups all purpose flour, 1.75 teaspoons baking powder, 0.5 cups milk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>White Cake</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1 cup white sugar, 0.5 cups unsalted butter, 2 teaspoons vanilla extract, 1.5 cups all purpose flour, 1.75 teaspoons baking powder, 0.5 cups milk</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 0</t>
         </is>
       </c>
     </row>

--- a/received_db.xlsx
+++ b/received_db.xlsx
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,12 +603,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ingredients</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>steps</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -629,6 +629,11 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>1 cup white sugar, 0.5 cups unsalted butter, 2 teaspoons vanilla extract, 1.5 cups all purpose flour, 1.75 teaspoons baking powder, 0.5 cups milk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Measure 1 cup of sugar into a mixing bowl.
 Measure 1 cup of butter into the same mixing bowl.
@@ -642,11 +647,6 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1 cup white sugar, 0.5 cups unsalted butter, 2 teaspoons vanilla extract, 1.5 cups all purpose flour, 1.75 teaspoons baking powder, 0.5 cups milk</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>White Cake</t>
@@ -657,7 +657,33 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 0</t>
+          <t>1, 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
